--- a/medicine/Pharmacie/Mononitrate_d'isosorbide/Mononitrate_d'isosorbide.xlsx
+++ b/medicine/Pharmacie/Mononitrate_d'isosorbide/Mononitrate_d'isosorbide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mononitrate_d%27isosorbide</t>
+          <t>Mononitrate_d'isosorbide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mononitrate d'isosorbide est une molécule de la classe des dérivés nitrés utilisé comme médicament antiangoreux. C'est le principal métabolite du dinitrate [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mononitrate d'isosorbide est une molécule de la classe des dérivés nitrés utilisé comme médicament antiangoreux. C'est le principal métabolite du dinitrate .
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mononitrate_d%27isosorbide</t>
+          <t>Mononitrate_d'isosorbide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un métabolite actif du dinitrate d'isosorbide. Sa biodisponibilité est de 100 %[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un métabolite actif du dinitrate d'isosorbide. Sa biodisponibilité est de 100 %.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mononitrate_d%27isosorbide</t>
+          <t>Mononitrate_d'isosorbide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il baisse la pression artérielle. En aiguë, il améliore la tolérance à l'effort d'un patient avec angine de poitrine mais cet effet n'est pas retrouvé lors d'une prise chronique[2]. Il n'est plus guère utilisé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il baisse la pression artérielle. En aiguë, il améliore la tolérance à l'effort d'un patient avec angine de poitrine mais cet effet n'est pas retrouvé lors d'une prise chronique. Il n'est plus guère utilisé.
 </t>
         </is>
       </c>
